--- a/broadcast.xlsx
+++ b/broadcast.xlsx
@@ -30,7 +30,7 @@
     <t>hakim</t>
   </si>
   <si>
-    <t>START</t>
+    <t xml:space="preserve">Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.</t>
   </si>
 </sst>
 </file>
@@ -71,8 +71,8 @@
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <protection hidden="0" locked="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -572,7 +572,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -603,19 +603,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="14.25">
+    <row r="3" ht="409.5">
       <c r="A3" s="2"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" ht="14.25">
-      <c r="A4" s="3"/>
+      <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4"/>
     </row>
-    <row r="5" ht="14.25">
-      <c r="C5"/>
-    </row>
+    <row r="5" ht="14.25"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>

--- a/broadcast.xlsx
+++ b/broadcast.xlsx
@@ -572,7 +572,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="100" workbookViewId="0">
+    <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -597,7 +597,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>6285648007953</v>
+        <v>6285648005671</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
